--- a/sputnik/personal/ee/330ee.xlsx
+++ b/sputnik/personal/ee/330ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,6 +34,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -50,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,21 +80,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -160,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -173,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,28 +184,20 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,367 +519,213 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43190</v>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>43581</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2620</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>3125</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>1328</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43344</v>
+      <c r="C3" s="3">
+        <v>1665</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>43704</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>2775</v>
+        <v>3388</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D10" si="0">C4-C2</f>
-        <v>155</v>
+        <f>C4-C2</f>
+        <v>263</v>
       </c>
       <c r="E4" s="3">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>697.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
+        <v>1180.8700000000001</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUM(F4,F5)</f>
+        <v>1533.2200000000003</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1538.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1454</v>
+        <v>1810</v>
       </c>
       <c r="D5" s="3">
+        <f>C5-C3</f>
+        <v>145</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>296.10000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43400</v>
+        <v>352.35</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>43892</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>2875</v>
+        <v>3609</v>
       </c>
       <c r="D6" s="3">
+        <f>C6-C4</f>
+        <v>221</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>992.29000000000008</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(F6,F7)</f>
+        <v>1692.13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1698.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1515</v>
+        <v>2098</v>
       </c>
       <c r="D7" s="3">
+        <f>C7-C5</f>
+        <v>288</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>143.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>43530</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2975</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1565</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>119.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
+        <v>699.84</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(G2:G7)</f>
+        <v>3225.3500000000004</v>
+      </c>
+      <c r="H8" s="18">
+        <f>SUM(H2:H7)</f>
+        <v>3236.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="18">
+        <f>SUM(H8,-G8)</f>
+        <v>11.019999999999527</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>43581</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3125</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>685.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1665</v>
-      </c>
-      <c r="D11" s="3">
-        <f>C11-C9</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>43704</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3388</v>
-      </c>
-      <c r="D12" s="3">
-        <f>C12-C10</f>
-        <v>263</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>1180.8700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1810</v>
-      </c>
-      <c r="D13" s="3">
-        <f>C13-C11</f>
-        <v>145</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>352.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/330ee.xlsx
+++ b/sputnik/personal/ee/330ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -505,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -685,47 +685,98 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6" t="s">
+      <c r="A8" s="17">
+        <v>43978</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3760</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8-C6</f>
+        <v>151</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" ref="F8:F9" si="1">D8*E8</f>
+        <v>677.99</v>
+      </c>
+      <c r="G8" s="18">
+        <f>SUM(F8,F9)</f>
+        <v>925.85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>914.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9-C7</f>
+        <v>102</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>247.86</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="18">
-        <f>SUM(G2:G7)</f>
-        <v>3225.3500000000004</v>
-      </c>
-      <c r="H8" s="18">
-        <f>SUM(H2:H7)</f>
-        <v>3236.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16" t="s">
+      <c r="G10" s="18">
+        <f>SUM(G2:G9)</f>
+        <v>4151.2000000000007</v>
+      </c>
+      <c r="H10" s="18">
+        <f>SUM(H2:H9)</f>
+        <v>4151.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="18">
-        <f>SUM(H8,-G8)</f>
-        <v>11.019999999999527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="18">
+        <f>SUM(H10,-G10)</f>
+        <v>-9.0949470177292824E-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/330ee.xlsx
+++ b/sputnik/personal/ee/330ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -505,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>3125</v>
+        <v>3182</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>1665</v>
+        <v>1696</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -590,22 +590,22 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3388</v>
+        <v>3445</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C2</f>
+        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
         <v>263</v>
       </c>
       <c r="E4" s="3">
         <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
         <v>1180.8700000000001</v>
       </c>
       <c r="G4" s="18">
         <f>SUM(F4,F5)</f>
-        <v>1533.2200000000003</v>
+        <v>1538.0800000000002</v>
       </c>
       <c r="H4" s="2">
         <v>1538.08</v>
@@ -617,18 +617,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1810</v>
+        <v>1843</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C3</f>
-        <v>145</v>
+        <f t="shared" si="0"/>
+        <v>147</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>352.35</v>
+        <f t="shared" si="1"/>
+        <v>357.21000000000004</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -641,17 +641,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>3609</v>
+        <v>3666</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C4</f>
+        <f t="shared" si="0"/>
         <v>221</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>992.29000000000008</v>
       </c>
       <c r="G6" s="18">
@@ -668,17 +668,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2098</v>
+        <v>2131</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C5</f>
+        <f t="shared" si="0"/>
         <v>288</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>699.84</v>
       </c>
       <c r="G7" s="2"/>
@@ -692,17 +692,17 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>3760</v>
+        <v>3817</v>
       </c>
       <c r="D8" s="3">
-        <f>C8-C6</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
       <c r="E8" s="3">
         <v>4.49</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" ref="F8:F9" si="1">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
         <v>677.99</v>
       </c>
       <c r="G8" s="18">
@@ -719,64 +719,115 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>2200</v>
+        <v>2233</v>
       </c>
       <c r="D9" s="3">
-        <f>C9-C7</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="E9" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>247.86</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6" t="s">
+      <c r="A10" s="17">
+        <v>44092</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4087</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <v>1271.7</v>
+      </c>
+      <c r="G10" s="18">
+        <f>SUM(F10,F11)</f>
+        <v>1271.7</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1271.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2233</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="18">
-        <f>SUM(G2:G9)</f>
-        <v>4151.2000000000007</v>
-      </c>
-      <c r="H10" s="18">
-        <f>SUM(H2:H9)</f>
-        <v>4151.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16" t="s">
+      <c r="G12" s="18">
+        <f>SUM(G2:G11)</f>
+        <v>5427.76</v>
+      </c>
+      <c r="H12" s="18">
+        <f>SUM(H2:H11)</f>
+        <v>5422.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="18">
-        <f>SUM(H10,-G10)</f>
-        <v>-9.0949470177292824E-13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="18">
+        <f>SUM(H12,-G12)</f>
+        <v>-4.8600000000005821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/330ee.xlsx
+++ b/sputnik/personal/ee/330ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -505,10 +505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="3"/>
@@ -787,47 +787,98 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6" t="s">
+      <c r="A12" s="17">
+        <v>44187</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4137</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>235.5</v>
+      </c>
+      <c r="G12" s="18">
+        <f>SUM(F12,F13)</f>
+        <v>745.5</v>
+      </c>
+      <c r="H12" s="2">
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2433</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="5"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G14" s="18">
         <f>SUM(G2:G11)</f>
         <v>5427.76</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H14" s="18">
         <f>SUM(H2:H11)</f>
         <v>5422.9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="18">
-        <f>SUM(H12,-G12)</f>
+      <c r="G15" s="2"/>
+      <c r="H15" s="18">
+        <f>SUM(H14,-G14)</f>
         <v>-4.8600000000005821</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/330ee.xlsx
+++ b/sputnik/personal/ee/330ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -91,12 +91,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -154,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -198,6 +210,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -505,10 +548,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,7 +650,7 @@
         <f>SUM(F4,F5)</f>
         <v>1538.0800000000002</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="25">
         <v>1538.08</v>
       </c>
     </row>
@@ -631,7 +674,7 @@
         <v>357.21000000000004</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -658,7 +701,7 @@
         <f>SUM(F6,F7)</f>
         <v>1692.13</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="25">
         <v>1698.29</v>
       </c>
     </row>
@@ -682,7 +725,7 @@
         <v>699.84</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -709,7 +752,7 @@
         <f>SUM(F8,F9)</f>
         <v>925.85</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="25">
         <v>914.83</v>
       </c>
     </row>
@@ -733,7 +776,7 @@
         <v>247.86</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
@@ -745,22 +788,22 @@
       <c r="C10" s="3">
         <v>4087</v>
       </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
+      <c r="D10" s="28">
+        <f>C10-C8</f>
         <v>270</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
+        <f t="shared" ref="F10:F13" si="3">D10*E10</f>
         <v>1271.7</v>
       </c>
       <c r="G10" s="18">
         <f>SUM(F10,F11)</f>
         <v>1271.7</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="25">
         <v>1271.7</v>
       </c>
     </row>
@@ -772,8 +815,8 @@
       <c r="C11" s="3">
         <v>2233</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
+      <c r="D11" s="28">
+        <f>C11-C9</f>
         <v>0</v>
       </c>
       <c r="E11" s="3">
@@ -784,101 +827,192 @@
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+      <c r="A12" s="27">
         <v>44187</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="28">
         <v>4137</v>
       </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="4">C12-C10</f>
+      <c r="D12" s="28">
+        <f>C12-C10</f>
         <v>50</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="28">
         <v>4.71</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+      <c r="F12" s="29">
+        <f t="shared" si="3"/>
         <v>235.5</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="30">
         <f>SUM(F12,F13)</f>
         <v>745.5</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="31">
         <v>745.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="32"/>
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="28">
         <v>2433</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="28">
+        <f>C13-C11</f>
+        <v>200</v>
+      </c>
+      <c r="E13" s="28">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="3"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44306</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>4287</v>
+      </c>
+      <c r="D14" s="20">
+        <f>C14-C12</f>
+        <v>150</v>
+      </c>
+      <c r="E14" s="20">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>706.5</v>
+      </c>
+      <c r="G14" s="22">
+        <f>SUM(F14,F15)</f>
+        <v>961.5</v>
+      </c>
+      <c r="H14" s="26">
+        <v>961.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2533</v>
+      </c>
+      <c r="D15" s="20">
+        <f>C15-C13</f>
+        <v>100</v>
+      </c>
+      <c r="E15" s="20">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="21">
         <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="5"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6" t="s">
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G20" s="18">
         <f>SUM(G2:G11)</f>
         <v>5427.76</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H20" s="18">
         <f>SUM(H2:H11)</f>
         <v>5422.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16" t="s">
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="18">
-        <f>SUM(H14,-G14)</f>
+      <c r="G21" s="2"/>
+      <c r="H21" s="18">
+        <f>SUM(H20,-G20)</f>
         <v>-4.8600000000005821</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/330ee.xlsx
+++ b/sputnik/personal/ee/330ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>доплата</t>
   </si>
 </sst>
 </file>
@@ -548,10 +551,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H19" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,7 +639,7 @@
         <v>3445</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="0">C4-C2</f>
+        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
         <v>263</v>
       </c>
       <c r="E4" s="3">
@@ -789,14 +792,14 @@
         <v>4087</v>
       </c>
       <c r="D10" s="28">
-        <f>C10-C8</f>
+        <f t="shared" ref="D10:D17" si="3">C10-C8</f>
         <v>270</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F13" si="3">D10*E10</f>
+        <f t="shared" ref="F10:F13" si="4">D10*E10</f>
         <v>1271.7</v>
       </c>
       <c r="G10" s="18">
@@ -816,14 +819,14 @@
         <v>2233</v>
       </c>
       <c r="D11" s="28">
-        <f>C11-C9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
@@ -840,14 +843,14 @@
         <v>4137</v>
       </c>
       <c r="D12" s="28">
-        <f>C12-C10</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="E12" s="28">
         <v>4.71</v>
       </c>
       <c r="F12" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>235.5</v>
       </c>
       <c r="G12" s="30">
@@ -867,157 +870,249 @@
         <v>2433</v>
       </c>
       <c r="D13" s="28">
-        <f>C13-C11</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E13" s="28">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G13" s="33"/>
       <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="27">
         <v>44306</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="B14" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="28">
         <v>4287</v>
       </c>
-      <c r="D14" s="20">
-        <f>C14-C12</f>
+      <c r="D14" s="28">
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="28">
         <v>4.71</v>
       </c>
-      <c r="F14" s="21">
-        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+      <c r="F14" s="29">
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
         <v>706.5</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="30">
         <f>SUM(F14,F15)</f>
         <v>961.5</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="31">
         <v>961.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="28">
         <v>2533</v>
       </c>
-      <c r="D15" s="20">
-        <f>C15-C13</f>
+      <c r="D15" s="28">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="28">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F15" s="21">
-        <f t="shared" si="4"/>
+      <c r="F15" s="29">
+        <f t="shared" si="5"/>
         <v>254.99999999999997</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="2"/>
+      <c r="A16" s="19">
+        <v>44421</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <v>4450</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="E16" s="20">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>808.48</v>
+      </c>
+      <c r="G16" s="22">
+        <f>SUM(F16,F17)</f>
+        <v>1390.04</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1305.78</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20">
+        <v>2750</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="E17" s="20">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="6"/>
+        <v>581.56000000000006</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="17">
+        <v>44443</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="6"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>89.12</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="17">
+        <v>44443</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4479</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C16)</f>
+        <v>29</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" ref="F19:F20" si="7">D19*E19</f>
+        <v>143.84</v>
+      </c>
+      <c r="G19" s="18">
+        <f>SUM(F19,F20)</f>
+        <v>146.52000000000001</v>
+      </c>
+      <c r="H19" s="2">
+        <v>146.88</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="A20" s="17"/>
+      <c r="B20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2751</v>
+      </c>
+      <c r="D20" s="3">
+        <f>SUM(C20,-C17)</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F20" s="29">
+        <f t="shared" si="7"/>
+        <v>2.68</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="18">
-        <f>SUM(G2:G11)</f>
-        <v>5427.76</v>
-      </c>
-      <c r="H20" s="18">
-        <f>SUM(H2:H11)</f>
-        <v>5422.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16" t="s">
+      <c r="G22" s="18">
+        <f>SUM(G2:G21)</f>
+        <v>8671.32</v>
+      </c>
+      <c r="H22" s="18">
+        <f>SUM(H2:H21)</f>
+        <v>8671.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="18">
-        <f>SUM(H20,-G20)</f>
-        <v>-4.8600000000005821</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="18">
+        <f>SUM(H22,-G22)</f>
+        <v>0.36000000000058208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
